--- a/biology/Botanique/Fagales/Fagales.xlsx
+++ b/biology/Botanique/Fagales/Fagales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Fagales regroupe des plantes dicotylédones.
-En classification classique de Cronquist (1981)[1] il comprend trois familles :
+En classification classique de Cronquist (1981) il comprend trois familles :
 Balanopacées
 Bétulacées (famille du bouleau)
 Fagacées (famille des chênes et hêtres)
-En classification phylogénétique APG (1998)[2], la circonscription était
+En classification phylogénétique APG (1998), la circonscription était
 ordre Fagales :
 famille Betulaceae
 famille Casuarinaceae
@@ -497,7 +509,7 @@
 famille Nothofagaceae
 famille Rhoipteleaceae
 famille Ticodendraceae
-En classification phylogénétique APG II (2003)[3], la circonscription est légèrement modifiée :
+En classification phylogénétique APG II (2003), la circonscription est légèrement modifiée :
 ordre Fagales :
 famille Betulaceae
 famille Casuarinaceae
@@ -508,7 +520,7 @@
 famille Nothofagaceae
 famille Ticodendraceae
 NB "[+ ...]" = famille optionnelle
-En classification phylogénétique APG III (2009)[4], la circonscription est :
+En classification phylogénétique APG III (2009), la circonscription est :
 ordre Fagales Engl. (1892)
 famille Betulaceae Gray (1822)
 famille Casuarinaceae R.Br. (1814)
